--- a/data/hotels_by_city/Houston/Houston_shard_684.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_684.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56761-d1469344-Reviews-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-WoodSpring-Suites-Texas-City.h2803701.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,792 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r593532340-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>1469344</t>
+  </si>
+  <si>
+    <t>593532340</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Great visit</t>
+  </si>
+  <si>
+    <t>I thank God for Stephanie's kindness during my visit very clean Hotel...I enjoyed my visit. .over all the staff was very polite, I will be returning soon... Texas City is a beautiful place to visit but Woodsprings Suites Texas City is awesome..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Texas City, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>I thank God for Stephanie's kindness during my visit very clean Hotel...I enjoyed my visit. .over all the staff was very polite, I will be returning soon... Texas City is a beautiful place to visit but Woodsprings Suites Texas City is awesome..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r560512324-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>560512324</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>Mr. Meadows</t>
+  </si>
+  <si>
+    <t>Everything is as advertised. Rooms kept clean. Staff always available and helpful and friendly. Even during hurricane all was good! I strongly recommend this place for anyone. Whether short term or for a long term. This hotel is close to restaurants and fast food establishments. I have never had a problem staying here. We have been here for over two years! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Everything is as advertised. Rooms kept clean. Staff always available and helpful and friendly. Even during hurricane all was good! I strongly recommend this place for anyone. Whether short term or for a long term. This hotel is close to restaurants and fast food establishments. I have never had a problem staying here. We have been here for over two years! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r554864810-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>554864810</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roaches </t>
+  </si>
+  <si>
+    <t>Has roaches!! Stinks. You can hear everything the people do on the floor above you. You have to pay $10 to get someone in the lobby after 8pm for a room key or anything. Rooms cleaned once every 2 weeks. Rude staff at the front desk. 15min drive to marathon refinery MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>WoodSpring S, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Has roaches!! Stinks. You can hear everything the people do on the floor above you. You have to pay $10 to get someone in the lobby after 8pm for a room key or anything. Rooms cleaned once every 2 weeks. Rude staff at the front desk. 15min drive to marathon refinery More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r414807820-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>414807820</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Peaceful stay</t>
+  </si>
+  <si>
+    <t>Very friendly last at front desk. Felt safe and secure. Room was clean. Remote did not work so I bought batteries but still did not work is my only complaint. Front desk was closed so no one to call. Price very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Very friendly last at front desk. Felt safe and secure. Room was clean. Remote did not work so I bought batteries but still did not work is my only complaint. Front desk was closed so no one to call. Price very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r389809594-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>389809594</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Welcoming, Great customer service from below team</t>
+  </si>
+  <si>
+    <t>I cant fault these great team: Kim, Tracy, Deirdre, and Lisa. there to assist, polite, welcoming and assisted me to settle in, not only in the hotel but around the city of Houston by provide city guide and attractions. Perfect team.Clean room, thumps up !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>I cant fault these great team: Kim, Tracy, Deirdre, and Lisa. there to assist, polite, welcoming and assisted me to settle in, not only in the hotel but around the city of Houston by provide city guide and attractions. Perfect team.Clean room, thumps up !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r387868934-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>387868934</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>CLEAN IS THIS PLACE</t>
+  </si>
+  <si>
+    <t>Nice and simple, had stayed at other Value Place Hotels and this was no different, great room, so clean that it made you feel important, staff was super here too, very helpful and knew the area well.  We liked all the extras in the studio and definitely loved the linen service.  Looking forward to vacation here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Nice and simple, had stayed at other Value Place Hotels and this was no different, great room, so clean that it made you feel important, staff was super here too, very helpful and knew the area well.  We liked all the extras in the studio and definitely loved the linen service.  Looking forward to vacation here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r381483552-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>381483552</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible </t>
+  </si>
+  <si>
+    <t>Terrible smell in the whole place especially in the rooms. I had two rooms for the family and both smelled like wet mold see pictures. It does not have the extras like a normal hotel (ice, breakfast, pool, iron, nor wifi). The entire staff was very unfriendly and unhelpful. I was so thankful it was a short one night stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Terrible smell in the whole place especially in the rooms. I had two rooms for the family and both smelled like wet mold see pictures. It does not have the extras like a normal hotel (ice, breakfast, pool, iron, nor wifi). The entire staff was very unfriendly and unhelpful. I was so thankful it was a short one night stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r353456518-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>353456518</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Working people</t>
+  </si>
+  <si>
+    <t>Hello, this is my second time staying in Value Place. I would highly recommend this to those workers who do extended stays. They have a cute little room with stove top and big refrigerator. The Internet is fast, of course u pay separate. The laundry room is big and the room are clean. I've stayed at motels and it's annoying when housekeeper come everyday or rooms r small with cheap free internet. I love Vaule Place because it's cheap, clean and comfortable stay for my family. If you r traveling through I recommend a hotel, but if your like us and work in town for couple of weeks I suggest u stay and save some money here. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Hello, this is my second time staying in Value Place. I would highly recommend this to those workers who do extended stays. They have a cute little room with stove top and big refrigerator. The Internet is fast, of course u pay separate. The laundry room is big and the room are clean. I've stayed at motels and it's annoying when housekeeper come everyday or rooms r small with cheap free internet. I love Vaule Place because it's cheap, clean and comfortable stay for my family. If you r traveling through I recommend a hotel, but if your like us and work in town for couple of weeks I suggest u stay and save some money here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r338712258-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>338712258</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Does not honor Confirmed Reservations</t>
+  </si>
+  <si>
+    <t>Last Monday, I made a on-line reservation for Sunday the 10th and received a confirmation number. On Tuesday, I spoke with the manager and offered to rent the room immediately even though I wouldn't arrive til Sunday, just to make sure I would have a room when I arrived. I was assured I would have a room waiting on me. I just called to let them know that I would be arriving on time. I was told there was no room available and that they had never heard of me. Of course now, there's not a room to be had in Texas City. This is a rotten way to do business.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Last Monday, I made a on-line reservation for Sunday the 10th and received a confirmation number. On Tuesday, I spoke with the manager and offered to rent the room immediately even though I wouldn't arrive til Sunday, just to make sure I would have a room when I arrived. I was assured I would have a room waiting on me. I just called to let them know that I would be arriving on time. I was told there was no room available and that they had never heard of me. Of course now, there's not a room to be had in Texas City. This is a rotten way to do business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r274900144-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>274900144</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>The most pathetic hotel</t>
+  </si>
+  <si>
+    <t>Please don't even dare to live in this hotel as it's just a hotel only on papers.bed is too small for two adults .no free internet..don't even expect free breakfast..don't recommend this hotel unless it's urgent or last minute booking.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Please don't even dare to live in this hotel as it's just a hotel only on papers.bed is too small for two adults .no free internet..don't even expect free breakfast..don't recommend this hotel unless it's urgent or last minute booking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r274875896-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>274875896</t>
+  </si>
+  <si>
+    <t>RC Cruise stop</t>
+  </si>
+  <si>
+    <t>It is better than Motel 6. They do not supply shampoo etc, only soap. The room was very clean and bed comfortable. The price is comparable to others of the same class. We stayed at this because no rooms available at any others. We almost passed this up because it looked like an apartment building but glad we stopped to inquiry if any rooms were available. For the price it is well worth the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>It is better than Motel 6. They do not supply shampoo etc, only soap. The room was very clean and bed comfortable. The price is comparable to others of the same class. We stayed at this because no rooms available at any others. We almost passed this up because it looked like an apartment building but glad we stopped to inquiry if any rooms were available. For the price it is well worth the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r271526295-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>271526295</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>I have stayed at Value Places throughout the US and this was one of the best.  The staff were really friendly and accomodating.  The halls and room were very clean, fresh smelling and the air temperatures were comfortable.. Bed was adequate however the pillows were cheap (Always bring my own) and not comfortable. Room was very quiet, couldn't hear other guests from above or next too.  I travel for work and spend most of my evenings working on the computer.  The internet speed allowed me to stream MLB and work in multiple windows with no problem.  You cant beat the price for weekly stays and I also really like the fact they do not clean your room everyday, personally do not like someone in my room.  I was also impressed with the laundry facilities, plenty of washers and driers and reasonably priced ($1.50). The only complaint I have is they only have 1 luggage dolly for the entire hotel.  There is plenty of space by the vending machines (where they have the dolly) for 2.  Had to make several trips up and down the stairs when it was time to leave.  They do have an elevator however the elevator is in the middle and I was at the end.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at Value Places throughout the US and this was one of the best.  The staff were really friendly and accomodating.  The halls and room were very clean, fresh smelling and the air temperatures were comfortable.. Bed was adequate however the pillows were cheap (Always bring my own) and not comfortable. Room was very quiet, couldn't hear other guests from above or next too.  I travel for work and spend most of my evenings working on the computer.  The internet speed allowed me to stream MLB and work in multiple windows with no problem.  You cant beat the price for weekly stays and I also really like the fact they do not clean your room everyday, personally do not like someone in my room.  I was also impressed with the laundry facilities, plenty of washers and driers and reasonably priced ($1.50). The only complaint I have is they only have 1 luggage dolly for the entire hotel.  There is plenty of space by the vending machines (where they have the dolly) for 2.  Had to make several trips up and down the stairs when it was time to leave.  They do have an elevator however the elevator is in the middle and I was at the end.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r258881590-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>258881590</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel ever for customer care!!!!!!</t>
+  </si>
+  <si>
+    <t>I booked from Feb 16/2015 through March 15/2015. At first I thought this was a nice clean place. The rooms all had a strange smell that i tried to cover but was not able too. You are charged for internet and your rooms are only cleaned every 2 weeks unless you pay for more. I was working nights and since the counter was never open when I got off work I would wait till I woke up to pay for the next weeks rent. At 11 sharp each week they would beat on my door expecting to be paid, knowing i was sleeping and even after we had spoke about paying when I had woke up. I paid on Monday and that night the job ended but this hotel would not give me any kind of refund. So in my opinion this was a terrible place to stay and the Manager and head house keeper were very rude. Ill never use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I booked from Feb 16/2015 through March 15/2015. At first I thought this was a nice clean place. The rooms all had a strange smell that i tried to cover but was not able too. You are charged for internet and your rooms are only cleaned every 2 weeks unless you pay for more. I was working nights and since the counter was never open when I got off work I would wait till I woke up to pay for the next weeks rent. At 11 sharp each week they would beat on my door expecting to be paid, knowing i was sleeping and even after we had spoke about paying when I had woke up. I paid on Monday and that night the job ended but this hotel would not give me any kind of refund. So in my opinion this was a terrible place to stay and the Manager and head house keeper were very rude. Ill never use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r257100295-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>257100295</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Stayed 8/2013-2/2015</t>
+  </si>
+  <si>
+    <t>I had stayed at Value Place in Texas City, TX from 8/2013-2/2015.  This is a no-frills option for those who's goal is saving money.  Most importantly, it is clean and safe!I had also stayed at Value Place in Kalamazoo, MI from 8/2012-7/2013; and the experience was similar at both places.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r256836983-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>256836983</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came in for a week to visit my brother and his family and I must say that the staff there was great. We didn't have a reservation but the young lady at the front desk said that was ok and got us checked in. Very friendly and helpful.  Rooms were clean and affordable. This was our first time staying at a value place, and I plan on making them my hotel of choice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r250681425-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>250681425</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Great Stay at Value Place</t>
+  </si>
+  <si>
+    <t>I was really impressed with the Hotel at Texas City.  The front desk person "Marie" was very helpful in helping find a room for my short stay.  I found it to be a great experience and look forward to another visit soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Sean A, Manager at WoodSpring Suites Texas City, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>I was really impressed with the Hotel at Texas City.  The front desk person "Marie" was very helpful in helping find a room for my short stay.  I found it to be a great experience and look forward to another visit soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r250415755-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>250415755</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Cleanest rooms and great staff</t>
+  </si>
+  <si>
+    <t>Do to my work I travel a lot. And this was the first time I have ever stayed at a extended stay hotel. I didn't have a reservation so I went in hoping they had availability. The young lady at the front desk was very friendly and even gave me a tour of the property prior to me checking in.  That was the first time someone has ever offered me a tour prior to checking in. I must say the rooms were exactly what I was looking for with the kitchenette. Everything was beyond my expectations of cleanliness. It didn't have a spec of dirt or dust that I could see. Which again was a first for me. The room was in excellent condition. One night I even came in late a lost my key and had to call for someone to come make me a new one.  I felt bad because it was way past the office hours. Another lady came down to make me a key and was more than helpful even though it was late. I will be traveling to this area again in a few months for work and will most differently be staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Do to my work I travel a lot. And this was the first time I have ever stayed at a extended stay hotel. I didn't have a reservation so I went in hoping they had availability. The young lady at the front desk was very friendly and even gave me a tour of the property prior to me checking in.  That was the first time someone has ever offered me a tour prior to checking in. I must say the rooms were exactly what I was looking for with the kitchenette. Everything was beyond my expectations of cleanliness. It didn't have a spec of dirt or dust that I could see. Which again was a first for me. The room was in excellent condition. One night I even came in late a lost my key and had to call for someone to come make me a new one.  I felt bad because it was way past the office hours. Another lady came down to make me a key and was more than helpful even though it was late. I will be traveling to this area again in a few months for work and will most differently be staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r236084805-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>236084805</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Worst Hotel Experience</t>
+  </si>
+  <si>
+    <t>I made my reservation online over 2 weeks in advance. I drove 9 hours with 3 children and after being stuck in Houston traffic for a lifetime, I finally get to the hotel only to be told that they can not locate my reservation! I even produced my confirmation email and the front desk clerk had no desire to even look at it. I had been looking for a hotel since the begining of the month and knew that everyone in the surrounding area was sold out. I was so upset and tired and just didn't know where to go or what to do. Fortunately, another hotel had a cancellation so I had a place to stay for one night (at 3 times the rate). My husband was able to straighten some things out and get us a room for the remainder of our stay. When I checked in they raised the rate! No one even apologized for all the inconvience of this whole mess. The room was just awful! It was hot and smelled like mildew or something equally as foul even after buying wall plugins and air freshener the smell would hit you everytime you opened the door. The floors are really thin so everytime my 1 yr old would walk across the floor or play with his cars the people below us would call and complain and bang on their ceiling. It made me so uncomfortable that...I made my reservation online over 2 weeks in advance. I drove 9 hours with 3 children and after being stuck in Houston traffic for a lifetime, I finally get to the hotel only to be told that they can not locate my reservation! I even produced my confirmation email and the front desk clerk had no desire to even look at it. I had been looking for a hotel since the begining of the month and knew that everyone in the surrounding area was sold out. I was so upset and tired and just didn't know where to go or what to do. Fortunately, another hotel had a cancellation so I had a place to stay for one night (at 3 times the rate). My husband was able to straighten some things out and get us a room for the remainder of our stay. When I checked in they raised the rate! No one even apologized for all the inconvience of this whole mess. The room was just awful! It was hot and smelled like mildew or something equally as foul even after buying wall plugins and air freshener the smell would hit you everytime you opened the door. The floors are really thin so everytime my 1 yr old would walk across the floor or play with his cars the people below us would call and complain and bang on their ceiling. It made me so uncomfortable that I woud leave as soon as I got up and stay gone until my husband got off work around like 8 or 9. I wanted to stay here because of the stove and fridge. I wanted to cook for my husband since he is always away from home, but was unable too. We didn't have enough towels for everyone (only 2) and EVERYTHING costs extra. If it wasn't for my husband I would not have even considered staying here after they didn't have my reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I made my reservation online over 2 weeks in advance. I drove 9 hours with 3 children and after being stuck in Houston traffic for a lifetime, I finally get to the hotel only to be told that they can not locate my reservation! I even produced my confirmation email and the front desk clerk had no desire to even look at it. I had been looking for a hotel since the begining of the month and knew that everyone in the surrounding area was sold out. I was so upset and tired and just didn't know where to go or what to do. Fortunately, another hotel had a cancellation so I had a place to stay for one night (at 3 times the rate). My husband was able to straighten some things out and get us a room for the remainder of our stay. When I checked in they raised the rate! No one even apologized for all the inconvience of this whole mess. The room was just awful! It was hot and smelled like mildew or something equally as foul even after buying wall plugins and air freshener the smell would hit you everytime you opened the door. The floors are really thin so everytime my 1 yr old would walk across the floor or play with his cars the people below us would call and complain and bang on their ceiling. It made me so uncomfortable that...I made my reservation online over 2 weeks in advance. I drove 9 hours with 3 children and after being stuck in Houston traffic for a lifetime, I finally get to the hotel only to be told that they can not locate my reservation! I even produced my confirmation email and the front desk clerk had no desire to even look at it. I had been looking for a hotel since the begining of the month and knew that everyone in the surrounding area was sold out. I was so upset and tired and just didn't know where to go or what to do. Fortunately, another hotel had a cancellation so I had a place to stay for one night (at 3 times the rate). My husband was able to straighten some things out and get us a room for the remainder of our stay. When I checked in they raised the rate! No one even apologized for all the inconvience of this whole mess. The room was just awful! It was hot and smelled like mildew or something equally as foul even after buying wall plugins and air freshener the smell would hit you everytime you opened the door. The floors are really thin so everytime my 1 yr old would walk across the floor or play with his cars the people below us would call and complain and bang on their ceiling. It made me so uncomfortable that I woud leave as soon as I got up and stay gone until my husband got off work around like 8 or 9. I wanted to stay here because of the stove and fridge. I wanted to cook for my husband since he is always away from home, but was unable too. We didn't have enough towels for everyone (only 2) and EVERYTHING costs extra. If it wasn't for my husband I would not have even considered staying here after they didn't have my reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r225080035-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>225080035</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Would definately recomend staying here.</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to vacation in Galveston.  What an awesome experience! I can't tell you enough how professional and friendly Casey and her staff are. The hotel is in a great location for anything you might need. The rooms are very clean and I loved having a kitchenette! We liked it so much,we stayed an extra day. Now that we know we''ll be back again for sure. In my book, this is a 5 star winner!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Casey D, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to vacation in Galveston.  What an awesome experience! I can't tell you enough how professional and friendly Casey and her staff are. The hotel is in a great location for anything you might need. The rooms are very clean and I loved having a kitchenette! We liked it so much,we stayed an extra day. Now that we know we''ll be back again for sure. In my book, this is a 5 star winner!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r218031008-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>218031008</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Great EVERYTHING</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 nights!  The staff was awesome as was security.  Every adult I.D. was ran to make sure they were good to stay.  Everything requires a security key.  To get in , to do laundry, etc.  Beds were comfy, price was awesome, clean, convenient, did I mention secure?  One person actually was following my mother outside.  They immediately called the police.  Short drive to the beaches in Galveston and also close to the Texas city dyke.  WILL STAY EVERY TIME IF POSSIBLE!  I loved having a full size fridge and a 2 burner cooktop along with microwave.  Can't say enough nice things about this place and NO BAD THINGS! Stay was March 2013MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 nights!  The staff was awesome as was security.  Every adult I.D. was ran to make sure they were good to stay.  Everything requires a security key.  To get in , to do laundry, etc.  Beds were comfy, price was awesome, clean, convenient, did I mention secure?  One person actually was following my mother outside.  They immediately called the police.  Short drive to the beaches in Galveston and also close to the Texas city dyke.  WILL STAY EVERY TIME IF POSSIBLE!  I loved having a full size fridge and a 2 burner cooktop along with microwave.  Can't say enough nice things about this place and NO BAD THINGS! Stay was March 2013More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r217295373-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>217295373</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Very clean; friendly staff.</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by how clean the rooms were and how friendly the staff was. I would highly recommend this place for anybody looking for an extended stay. I know ill defiantly be coming back here; when I visit the Galveston county area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by how clean the rooms were and how friendly the staff was. I would highly recommend this place for anybody looking for an extended stay. I know ill defiantly be coming back here; when I visit the Galveston county area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r198273034-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>198273034</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Best place ever to stay!!!</t>
+  </si>
+  <si>
+    <t>I have stayed in many places in my lifetime and this is by far the most excellent!! I will stay in Value Place everywhere I go, if they have one there!! Most excellent, friendly staff also!! Will recommend to friends, family and anyone I talk to about lodging!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Casey D, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed in many places in my lifetime and this is by far the most excellent!! I will stay in Value Place everywhere I go, if they have one there!! Most excellent, friendly staff also!! Will recommend to friends, family and anyone I talk to about lodging!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r195378845-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>195378845</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Great place! An excellent bargain.</t>
+  </si>
+  <si>
+    <t>1st impression....clean &amp; the staff was very friendly.  Casey was very helpful with anything I needed. The after hours guy Johnny was awesome too. Only negative was no wifi although they said they are getting it in the next few months. MoreShow less</t>
+  </si>
+  <si>
+    <t>Casey D, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>1st impression....clean &amp; the staff was very friendly.  Casey was very helpful with anything I needed. The after hours guy Johnny was awesome too. Only negative was no wifi although they said they are getting it in the next few months. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r193773567-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>193773567</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly quiet!</t>
+  </si>
+  <si>
+    <t>As close as it is to the "highway" it is remarkably quiet.  Rooms are comfortable and having the full kitchen is a nice cost/time saver.  May not seem like a big deal to some but vending machines are full stocked with a nice variety of snacks and  necessities!MoreShow less</t>
+  </si>
+  <si>
+    <t>As close as it is to the "highway" it is remarkably quiet.  Rooms are comfortable and having the full kitchen is a nice cost/time saver.  May not seem like a big deal to some but vending machines are full stocked with a nice variety of snacks and  necessities!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r175965606-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>175965606</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Place Of Piece</t>
+  </si>
+  <si>
+    <t>Everything was very clean ....What I really liked was nothing was broken or not working, if I had any questions about anything I needed they took real goo care  of me in a timely manner. If they had a swimming pool this would be a perfect getaway.....MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Casey D, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Everything was very clean ....What I really liked was nothing was broken or not working, if I had any questions about anything I needed they took real goo care  of me in a timely manner. If they had a swimming pool this would be a perfect getaway.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r175364612-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>175364612</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>very impressed, as advertised</t>
+  </si>
+  <si>
+    <t>Room was extremely clean and stocked with working fridge, microwave, stovetop, and tv with cable. Great privacy and not much noise. Great security with key card needed to get into building and again to enter room. The cleaning lady did a great job, she even took the time to do the small stuff such as placing my toothbrush back into its cup. Location is a short drive away from the tanger outlet mall so something to do with spare time. Internet fast enough to stream videos. No real complaints. Doesn't have a fancy gym or pool, but for what it aimed to do which was to provide a clean and safe place to stay for a few weeks, value place did a near perfect job.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was extremely clean and stocked with working fridge, microwave, stovetop, and tv with cable. Great privacy and not much noise. Great security with key card needed to get into building and again to enter room. The cleaning lady did a great job, she even took the time to do the small stuff such as placing my toothbrush back into its cup. Location is a short drive away from the tanger outlet mall so something to do with spare time. Internet fast enough to stream videos. No real complaints. Doesn't have a fancy gym or pool, but for what it aimed to do which was to provide a clean and safe place to stay for a few weeks, value place did a near perfect job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r174841907-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>174841907</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>Ideal for anyone on an extended work assignment. The property is clean and quiet. Rooms remind you of a college dorm (quality). Some of the staff lives on site, so there is always someone available to handle any issues or concerns.  Johnnie and Theresa are particularly helpful and friendly, and always willing to assist guests.  Basic cable selection. There is a weekly $10.95 fee for the internet.  Internet needs to be upgraded (very slow and frustrating at times)There is a small laundry room (open 24/7/$1.00 wash/dry). No pool, however there are several restaurants,  a Walmart and Sam's Club less than five minutes away. The hotel is approximately fifteen minutes away from Galveston, and thirty-five to one-hour away from Houston (depending on traffic). Not a bad location. Right off of I-45 service drive, next door to a church.  If you need a place to stay for a week or an extended length of time and you do not want to spend fifty percent of your budget on hotel costs, Value Place will save you money.  The only negative point about Value Place is the poor quality and added fees for the internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ideal for anyone on an extended work assignment. The property is clean and quiet. Rooms remind you of a college dorm (quality). Some of the staff lives on site, so there is always someone available to handle any issues or concerns.  Johnnie and Theresa are particularly helpful and friendly, and always willing to assist guests.  Basic cable selection. There is a weekly $10.95 fee for the internet.  Internet needs to be upgraded (very slow and frustrating at times)There is a small laundry room (open 24/7/$1.00 wash/dry). No pool, however there are several restaurants,  a Walmart and Sam's Club less than five minutes away. The hotel is approximately fifteen minutes away from Galveston, and thirty-five to one-hour away from Houston (depending on traffic). Not a bad location. Right off of I-45 service drive, next door to a church.  If you need a place to stay for a week or an extended length of time and you do not want to spend fifty percent of your budget on hotel costs, Value Place will save you money.  The only negative point about Value Place is the poor quality and added fees for the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r162417073-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>162417073</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Our Corporate Home</t>
+  </si>
+  <si>
+    <t>Value Place have become our corporate home. Any of our executives arriving first come to Value Place. The location is ideal for working both Galveston and Houston. The professional and friendly personnel, from Casey's management team through the entire staff, are always willing to help in any way needed. Suites are always clean and accommodations can be made to have clean linens and towels as needed. Being away from home is never the best situation. Being at Value Place in Texas City brings home a little closer.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Value Place have become our corporate home. Any of our executives arriving first come to Value Place. The location is ideal for working both Galveston and Houston. The professional and friendly personnel, from Casey's management team through the entire staff, are always willing to help in any way needed. Suites are always clean and accommodations can be made to have clean linens and towels as needed. Being away from home is never the best situation. Being at Value Place in Texas City brings home a little closer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r159840599-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>159840599</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Great for Business Traveler and Family Vacations in Galveston</t>
+  </si>
+  <si>
+    <t>If you are a business traveler it fits in perfectly with the " suits" budget. Clean, Quiet, and the Locale is just what a person who is working in the area. I was very impressed with the quality of furnishings and over all space when I checked into "Value Place". It truly proves inexpensive does not mean quality.As for a Family on vacation, the low weekly rate would allow myself as a parent to stay in a budget to allow the ability to do more of the fun stuff in Galveston with my Boys.easy access to the Highways, Malls, and of course Walmart! I love it ! you will too!MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>If you are a business traveler it fits in perfectly with the " suits" budget. Clean, Quiet, and the Locale is just what a person who is working in the area. I was very impressed with the quality of furnishings and over all space when I checked into "Value Place". It truly proves inexpensive does not mean quality.As for a Family on vacation, the low weekly rate would allow myself as a parent to stay in a budget to allow the ability to do more of the fun stuff in Galveston with my Boys.easy access to the Highways, Malls, and of course Walmart! I love it ! you will too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r144243471-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>144243471</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>A very pleasant stay</t>
+  </si>
+  <si>
+    <t>Value Place was home away from home for almost 3 months.  The rooms are sunny, I loved my full-size kitchen and high speed internet kept me connected.  The staff are wonderful - always a friendly face, always a smile.  The property manager is to be commended - Casey is very professional, helpful, and makes all her guests feel right at home and part of a "family".  Cudos to you all, I'll miss ya!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Texas City, responded to this reviewResponded November 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2012</t>
+  </si>
+  <si>
+    <t>Value Place was home away from home for almost 3 months.  The rooms are sunny, I loved my full-size kitchen and high speed internet kept me connected.  The staff are wonderful - always a friendly face, always a smile.  The property manager is to be commended - Casey is very professional, helpful, and makes all her guests feel right at home and part of a "family".  Cudos to you all, I'll miss ya!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r134548659-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>134548659</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Great Staff Great Price</t>
+  </si>
+  <si>
+    <t>I stayed here while working for a couple of months at a local hopital. My first impression was that it was well maintained and clean...which you don't find very often at a great price! The staff was awesome...very helpful &amp; friendly. Again not what you would expect at economy hotel. It was quiet and the room came with a regular kitchen which was great. While researching I only found a few other hotels in the area that have "kitchenettes"  which consist of a mini fridge &amp; a tiny microwave. Although you don't get all the bells &amp; whistles that other hotels may have, you get a clean, secured atmosphere at a great price. If I wanted all that I would have to pay 3-5 times as much. Maybe on vacation but not while I'm travelling for work. I'd rather keep my money in my pocket! I will definately stay at Value Places in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Texas City, responded to this reviewResponded July 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here while working for a couple of months at a local hopital. My first impression was that it was well maintained and clean...which you don't find very often at a great price! The staff was awesome...very helpful &amp; friendly. Again not what you would expect at economy hotel. It was quiet and the room came with a regular kitchen which was great. While researching I only found a few other hotels in the area that have "kitchenettes"  which consist of a mini fridge &amp; a tiny microwave. Although you don't get all the bells &amp; whistles that other hotels may have, you get a clean, secured atmosphere at a great price. If I wanted all that I would have to pay 3-5 times as much. Maybe on vacation but not while I'm travelling for work. I'd rather keep my money in my pocket! I will definately stay at Value Places in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r133811966-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>133811966</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Do-it-yourself savings.</t>
+  </si>
+  <si>
+    <t>This was a studio apartment rented by the week. Monthly rates are available. The weekly rate was about that of three days elsewhere. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.
+We had a full refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided.
+There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulleting board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. 
+There was an adequate bathroom with nice shower pressure, enough hot water, and a variable speed shower head. 
+The beds consist of mattresses on wooden platforms - with storage under them. There is an extra charge for new sheets or more towels.
+We were on the first floor but noted an elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. We never heard any noise or disturbances. 
+There was easy access to the north-bound feeder road of I-45. To reach the motel from I-45, take exit 16 of I-45. Turn left under I-45 to the second traffice...This was a studio apartment rented by the week. Monthly rates are available. The weekly rate was about that of three days elsewhere. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.We had a full refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided.There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulleting board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. There was an adequate bathroom with nice shower pressure, enough hot water, and a variable speed shower head. The beds consist of mattresses on wooden platforms - with storage under them. There is an extra charge for new sheets or more towels.We were on the first floor but noted an elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. We never heard any noise or disturbances. There was easy access to the north-bound feeder road of I-45. To reach the motel from I-45, take exit 16 of I-45. Turn left under I-45 to the second traffice light. Take a left onto the north-bound feeder. The hotel will be on the right after about three blocks of north-bound driving on the feeder road. The front desk is only open during the day, but a 24-hour attendant lives in the building. He was very polite and friendly. He gave us road directions.There is a 24-hour IHOP at exit 16 and a 24-hour Denny's at exit 20. After any north-bound trip, one must cross over or under I-45, and take the south-bound feeder back to exit 16.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a studio apartment rented by the week. Monthly rates are available. The weekly rate was about that of three days elsewhere. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.
+We had a full refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided.
+There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulleting board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. 
+There was an adequate bathroom with nice shower pressure, enough hot water, and a variable speed shower head. 
+The beds consist of mattresses on wooden platforms - with storage under them. There is an extra charge for new sheets or more towels.
+We were on the first floor but noted an elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. We never heard any noise or disturbances. 
+There was easy access to the north-bound feeder road of I-45. To reach the motel from I-45, take exit 16 of I-45. Turn left under I-45 to the second traffice...This was a studio apartment rented by the week. Monthly rates are available. The weekly rate was about that of three days elsewhere. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.We had a full refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided.There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulleting board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. There was an adequate bathroom with nice shower pressure, enough hot water, and a variable speed shower head. The beds consist of mattresses on wooden platforms - with storage under them. There is an extra charge for new sheets or more towels.We were on the first floor but noted an elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. We never heard any noise or disturbances. There was easy access to the north-bound feeder road of I-45. To reach the motel from I-45, take exit 16 of I-45. Turn left under I-45 to the second traffice light. Take a left onto the north-bound feeder. The hotel will be on the right after about three blocks of north-bound driving on the feeder road. The front desk is only open during the day, but a 24-hour attendant lives in the building. He was very polite and friendly. He gave us road directions.There is a 24-hour IHOP at exit 16 and a 24-hour Denny's at exit 20. After any north-bound trip, one must cross over or under I-45, and take the south-bound feeder back to exit 16.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r98472701-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>98472701</t>
+  </si>
+  <si>
+    <t>02/28/2011</t>
+  </si>
+  <si>
+    <t>They do not honor their reservations</t>
+  </si>
+  <si>
+    <t>Do not expect to get a room even with a confirmed reservation.  They had no rooms when I arrived and said they were "sorry for the inconveience" but there was nothing they could do so I had to drive around and look for something else the night before I started a new job.  They would not even provide the manager's phone number.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1327,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1359,2224 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>174</v>
+      </c>
+      <c r="X19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>204</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>261</v>
+      </c>
+      <c r="X29" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>269</v>
+      </c>
+      <c r="X30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>287</v>
+      </c>
+      <c r="X33" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>297</v>
+      </c>
+      <c r="J34" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" t="s">
+        <v>299</v>
+      </c>
+      <c r="L34" t="s">
+        <v>300</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>301</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_684.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_684.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r601495486-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>1469344</t>
+  </si>
+  <si>
+    <t>601495486</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>OK place but there is likely better close by</t>
+  </si>
+  <si>
+    <t>The walls are THIN, THIN, THIN. We should have requested a room on the top floor to avoid some noise.  The room above us had small children who opted to make their room a play area. They were stomping and jumping around late into the night. It was really loud.  The room next door had a dog that they must have left in the room alone because it howled constantly until they came back late that night.  This is a very basic hotel. They place was OK clean. Not great. The mattress and furniture was not in very good shape and bring a pillow.  The ones in the room are small and thin.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Texas City, responded to this reviewResponded August 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2018</t>
+  </si>
+  <si>
+    <t>The walls are THIN, THIN, THIN. We should have requested a room on the top floor to avoid some noise.  The room above us had small children who opted to make their room a play area. They were stomping and jumping around late into the night. It was really loud.  The room next door had a dog that they must have left in the room alone because it howled constantly until they came back late that night.  This is a very basic hotel. They place was OK clean. Not great. The mattress and furniture was not in very good shape and bring a pillow.  The ones in the room are small and thin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r594956107-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>594956107</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Nice and relaxing</t>
+  </si>
+  <si>
+    <t>My visit was amazing, rooms were clean and organized, a very peaceful stay and Stephanie Dechello was very helpful with anything that we needed. I will definitely recommend this hotel to all of my friends and family. It was a very pleasurable experience.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Texas City, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>My visit was amazing, rooms were clean and organized, a very peaceful stay and Stephanie Dechello was very helpful with anything that we needed. I will definitely recommend this hotel to all of my friends and family. It was a very pleasurable experience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r593532340-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
-    <t>56761</t>
-  </si>
-  <si>
-    <t>1469344</t>
-  </si>
-  <si>
     <t>593532340</t>
   </si>
   <si>
@@ -174,16 +231,13 @@
     <t>I thank God for Stephanie's kindness during my visit very clean Hotel...I enjoyed my visit. .over all the staff was very polite, I will be returning soon... Texas City is a beautiful place to visit but Woodsprings Suites Texas City is awesome..MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Julia R, Guest Relations at WoodSpring Suites Texas City, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
+    <t>Julia R, Guest Relations at WoodSpring Suites Texas City, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
   </si>
   <si>
     <t>I thank God for Stephanie's kindness during my visit very clean Hotel...I enjoyed my visit. .over all the staff was very polite, I will be returning soon... Texas City is a beautiful place to visit but Woodsprings Suites Texas City is awesome..More</t>
@@ -207,9 +261,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Julia R, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded February 16, 2018</t>
   </si>
   <si>
@@ -249,6 +300,60 @@
     <t>Has roaches!! Stinks. You can hear everything the people do on the floor above you. You have to pay $10 to get someone in the lobby after 8pm for a room key or anything. Rooms cleaned once every 2 weeks. Rude staff at the front desk. 15min drive to marathon refinery More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r475302070-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>475302070</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay for extended time frame.</t>
+  </si>
+  <si>
+    <t>I was in Texas City for work for two month. A friend recommended this hotel so I tried it out even though I never heard of it before. The rooms were good sized and there was a full fridge. The staff is so friendly too! I would stay here again if I came back to Texas City.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>I was in Texas City for work for two month. A friend recommended this hotel so I tried it out even though I never heard of it before. The rooms were good sized and there was a full fridge. The staff is so friendly too! I would stay here again if I came back to Texas City.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r454815259-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>454815259</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicles bulargized </t>
+  </si>
+  <si>
+    <t>Last night 5 trucks had their windows smashed out and were burglarized this happens throughout the year according to the front desk woodspring suites is in no way responsible for loss of property in their parking lot beware this happens here and if your vechicle is vandalised its on you driver side window 300$MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Last night 5 trucks had their windows smashed out and were burglarized this happens throughout the year according to the front desk woodspring suites is in no way responsible for loss of property in their parking lot beware this happens here and if your vechicle is vandalised its on you driver side window 300$More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r414807820-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -327,6 +432,51 @@
     <t>Nice and simple, had stayed at other Value Place Hotels and this was no different, great room, so clean that it made you feel important, staff was super here too, very helpful and knew the area well.  We liked all the extras in the studio and definitely loved the linen service.  Looking forward to vacation here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r387649346-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>387649346</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Clean and friendly staff.</t>
+  </si>
+  <si>
+    <t>From the moment I walked in I noticed how clean this place was. I have never stayed at a value place before but I was in town visiting family in the area. I googled a few places and this one seemed reasonable but I also liked the idea of being able to cook in my room rather than eat out. Another thing I liked was how the hotel was just one closed building so safety was a plus being that I was traveling alone. The front desk person greeted me with a smile and was friendly. The minute I got to my room I checked the room like I do everywhere I stay lol Everything was so clean and smelled nice too. Every morning and evening I left and came in the staff would offer help to other guests and always greeted everyone that was something I noticed and its sad to say but not too many hotels provide service like that now a days. Next time I make a trip out this way I'm going just make this hotel my home away from home. Great staff , secure and a very clean hotel/room.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>From the moment I walked in I noticed how clean this place was. I have never stayed at a value place before but I was in town visiting family in the area. I googled a few places and this one seemed reasonable but I also liked the idea of being able to cook in my room rather than eat out. Another thing I liked was how the hotel was just one closed building so safety was a plus being that I was traveling alone. The front desk person greeted me with a smile and was friendly. The minute I got to my room I checked the room like I do everywhere I stay lol Everything was so clean and smelled nice too. Every morning and evening I left and came in the staff would offer help to other guests and always greeted everyone that was something I noticed and its sad to say but not too many hotels provide service like that now a days. Next time I make a trip out this way I'm going just make this hotel my home away from home. Great staff , secure and a very clean hotel/room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r386443446-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>386443446</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>For less than $400/wk for a studio fully furnished; bed, Flat TV, Cable, Wifi, Microwave, Stove, and a Full-size Refrigerator, it's a wonderful option for an extended stay.  Easy access to and from Freeways and Highways.  The premises is very clean, and feels safe.  Very very professional and courteous staff at Guest Check-in Desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>For less than $400/wk for a studio fully furnished; bed, Flat TV, Cable, Wifi, Microwave, Stove, and a Full-size Refrigerator, it's a wonderful option for an extended stay.  Easy access to and from Freeways and Highways.  The premises is very clean, and feels safe.  Very very professional and courteous staff at Guest Check-in Desk.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r381483552-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -408,6 +558,63 @@
     <t>Last Monday, I made a on-line reservation for Sunday the 10th and received a confirmation number. On Tuesday, I spoke with the manager and offered to rent the room immediately even though I wouldn't arrive til Sunday, just to make sure I would have a room when I arrived. I was assured I would have a room waiting on me. I just called to let them know that I would be arriving on time. I was told there was no room available and that they had never heard of me. Of course now, there's not a room to be had in Texas City. This is a rotten way to do business.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r323766800-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>323766800</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Studio apartment for working people or week-long vacationers</t>
+  </si>
+  <si>
+    <t>Before entering my 2015 review of Value Place, I again read my 2014 review. Having changed a few words, I find that 2014's review serves as the skeleton of 2015's review. 
+Value place is an inexpensive stay for weekly or monthly work assignments or for short duration training periods. My wife and I visit our two daughters in Texas City and Dickinson. We stay at the Texas City Value Place because a week's stay only costs about three days' stay at the other motels we use. The savings is a trade for maid service we don't need. The room was clean when we arrived. The bed was made. There were towels and toilet paper in the bathroom.
+We checked in after front desk hours with a maintenance man. There was one luggage cart. Our room was near the elevator. We were on the fourth floor of a four-floor building, near the elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. There are vending machines in an alcove behind the elevator on the first floor. There is a key-access laundry room on the front floor.
+This was a studio apartment rented by the week. Monthly rates are available. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel....Before entering my 2015 review of Value Place, I again read my 2014 review. Having changed a few words, I find that 2014's review serves as the skeleton of 2015's review. Value place is an inexpensive stay for weekly or monthly work assignments or for short duration training periods. My wife and I visit our two daughters in Texas City and Dickinson. We stay at the Texas City Value Place because a week's stay only costs about three days' stay at the other motels we use. The savings is a trade for maid service we don't need. The room was clean when we arrived. The bed was made. There were towels and toilet paper in the bathroom.We checked in after front desk hours with a maintenance man. There was one luggage cart. Our room was near the elevator. We were on the fourth floor of a four-floor building, near the elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. There are vending machines in an alcove behind the elevator on the first floor. There is a key-access laundry room on the front floor.This was a studio apartment rented by the week. Monthly rates are available. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.We had a tiled kitchen with a full size refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided but can be rented.There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulletin board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. The floor is carpeted. The far left corner of the room has a closet rack with a shelf and hanger pole. There is space under it for our three suit cases. There were paintings over the bed. There was an adequate bathroom with nice shower pressure, enough hot water, and a variable speed shower head, but no hook on the door. The tub drained slowly but completely.The beds consist of mattresses on metal platforms - with storage under them. There is an extra charge for new sheets or more towels. The mattress was about 8-10 inches thick and very comfortable.There was easy access to the north-bound feeder road of I-45. To reach the motel from I-45, take exit 16 of I-45. Turn left under I-45 to the second traffick light. Take a left onto the north-bound feeder. The hotel will be on the right after about three blocks of north-bound driving on the feeder road. The front desk is only open during the day, but a 24-hour attendant lives in the building. He was very polite and friendly. He gave us road directions. A room key is needed to enter the front door and the doors at either end of the building. At the entrances, there are no benches on which to sit while waiting for a ride or visiting friend. There is a 24-hour IHOP at exit 16 and a 24-hour Denny's at exit 20. After any north-bound trip, one must cross over or under I-45, and take the south-bound feeder back to exit 16.  At exit 15, there are also Little Caesar's, Whattaburger, and two shopping centers. To access highway FM 2004, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn left onto FM2004.To access highway FM 1764, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn right onto FM2004. In less than a mile, turn left onto Emmett F Lowry Expressway. Take the first left exit onto FM 1764.For returning to I-45 North, turn right onto the Feeder Road until the first entrance to I-45 North.For returning to I-45 South, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn right onto FM2004. In about a mile, pass under I-45. Turn left onto the southbound feeder road. Take the first left ramp onto I-45 South.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Before entering my 2015 review of Value Place, I again read my 2014 review. Having changed a few words, I find that 2014's review serves as the skeleton of 2015's review. 
+Value place is an inexpensive stay for weekly or monthly work assignments or for short duration training periods. My wife and I visit our two daughters in Texas City and Dickinson. We stay at the Texas City Value Place because a week's stay only costs about three days' stay at the other motels we use. The savings is a trade for maid service we don't need. The room was clean when we arrived. The bed was made. There were towels and toilet paper in the bathroom.
+We checked in after front desk hours with a maintenance man. There was one luggage cart. Our room was near the elevator. We were on the fourth floor of a four-floor building, near the elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. There are vending machines in an alcove behind the elevator on the first floor. There is a key-access laundry room on the front floor.
+This was a studio apartment rented by the week. Monthly rates are available. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel....Before entering my 2015 review of Value Place, I again read my 2014 review. Having changed a few words, I find that 2014's review serves as the skeleton of 2015's review. Value place is an inexpensive stay for weekly or monthly work assignments or for short duration training periods. My wife and I visit our two daughters in Texas City and Dickinson. We stay at the Texas City Value Place because a week's stay only costs about three days' stay at the other motels we use. The savings is a trade for maid service we don't need. The room was clean when we arrived. The bed was made. There were towels and toilet paper in the bathroom.We checked in after front desk hours with a maintenance man. There was one luggage cart. Our room was near the elevator. We were on the fourth floor of a four-floor building, near the elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. There are vending machines in an alcove behind the elevator on the first floor. There is a key-access laundry room on the front floor.This was a studio apartment rented by the week. Monthly rates are available. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.We had a tiled kitchen with a full size refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided but can be rented.There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulletin board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. The floor is carpeted. The far left corner of the room has a closet rack with a shelf and hanger pole. There is space under it for our three suit cases. There were paintings over the bed. There was an adequate bathroom with nice shower pressure, enough hot water, and a variable speed shower head, but no hook on the door. The tub drained slowly but completely.The beds consist of mattresses on metal platforms - with storage under them. There is an extra charge for new sheets or more towels. The mattress was about 8-10 inches thick and very comfortable.There was easy access to the north-bound feeder road of I-45. To reach the motel from I-45, take exit 16 of I-45. Turn left under I-45 to the second traffick light. Take a left onto the north-bound feeder. The hotel will be on the right after about three blocks of north-bound driving on the feeder road. The front desk is only open during the day, but a 24-hour attendant lives in the building. He was very polite and friendly. He gave us road directions. A room key is needed to enter the front door and the doors at either end of the building. At the entrances, there are no benches on which to sit while waiting for a ride or visiting friend. There is a 24-hour IHOP at exit 16 and a 24-hour Denny's at exit 20. After any north-bound trip, one must cross over or under I-45, and take the south-bound feeder back to exit 16.  At exit 15, there are also Little Caesar's, Whattaburger, and two shopping centers. To access highway FM 2004, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn left onto FM2004.To access highway FM 1764, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn right onto FM2004. In less than a mile, turn left onto Emmett F Lowry Expressway. Take the first left exit onto FM 1764.For returning to I-45 North, turn right onto the Feeder Road until the first entrance to I-45 North.For returning to I-45 South, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn right onto FM2004. In about a mile, pass under I-45. Turn left onto the southbound feeder road. Take the first left ramp onto I-45 South.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r296744856-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>296744856</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>THEY ARE HORRIBLE</t>
+  </si>
+  <si>
+    <t>When I asked for a 2 bed they gave me a one you have to wash your towels before they get sent to the back to get washed what's the point of washing them so they are going to get washed by the staff they are horrible I recommend you to go somewhere elseMoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>When I asked for a 2 bed they gave me a one you have to wash your towels before they get sent to the back to get washed what's the point of washing them so they are going to get washed by the staff they are horrible I recommend you to go somewhere elseMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r274900144-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -471,6 +678,39 @@
     <t>I have stayed at Value Places throughout the US and this was one of the best.  The staff were really friendly and accomodating.  The halls and room were very clean, fresh smelling and the air temperatures were comfortable.. Bed was adequate however the pillows were cheap (Always bring my own) and not comfortable. Room was very quiet, couldn't hear other guests from above or next too.  I travel for work and spend most of my evenings working on the computer.  The internet speed allowed me to stream MLB and work in multiple windows with no problem.  You cant beat the price for weekly stays and I also really like the fact they do not clean your room everyday, personally do not like someone in my room.  I was also impressed with the laundry facilities, plenty of washers and driers and reasonably priced ($1.50). The only complaint I have is they only have 1 luggage dolly for the entire hotel.  There is plenty of space by the vending machines (where they have the dolly) for 2.  Had to make several trips up and down the stairs when it was time to leave.  They do have an elevator however the elevator is in the middle and I was at the end.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r261173189-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>261173189</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Super Clean Rooms</t>
+  </si>
+  <si>
+    <t>I had never stayed at a Value Place before so I was a bit hesitant. I wish I had found this gem earlier in my travels to Texas City. The rooms were great. They were the cleanest hotel rooms I have ever encountered. The staff was friendly and the vending machines take credit cards! I will be staying here next time, no doubt about it.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r259105814-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>259105814</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Check in with terry was very efficient great friendly staff,and room cleanliness was far beyond my expectations! comment card left on  table said my room was cleaned by Nicole ...and she did an amazing job</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r258881590-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -522,15 +762,48 @@
     <t xml:space="preserve">Came in for a week to visit my brother and his family and I must say that the staff there was great. We didn't have a reservation but the young lady at the front desk said that was ok and got us checked in. Very friendly and helpful.  Rooms were clean and affordable. This was our first time staying at a value place, and I plan on making them my hotel of choice. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r256779931-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>256779931</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>New property, clean, friendly staff. Had everything I needed, when I asked for it, and in a very timely manner. Quiet and I was able to sleep without interruption day or night. Night time secure entry and hotel is in a good area where you do not have to worry about your vehicle or items in your vehicle.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r250714694-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>250714694</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was far better than i expected. Terry and marie were very helpful with directing me to restaurants and shopping. Check in was smooth snd efficient.  The room as well as the hotel was very clean.  I would definitely recommend this hotel to anyone And will make this my hotel of choice on my next travel to this area. Very affordable and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean A, Manager at WoodSpring Suites Texas City, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was far better than i expected. Terry and marie were very helpful with directing me to restaurants and shopping. Check in was smooth snd efficient.  The room as well as the hotel was very clean.  I would definitely recommend this hotel to anyone And will make this my hotel of choice on my next travel to this area. Very affordable and clean.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r250681425-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
     <t>250681425</t>
   </si>
   <si>
-    <t>01/23/2015</t>
-  </si>
-  <si>
     <t>Great Stay at Value Place</t>
   </si>
   <si>
@@ -540,12 +813,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Sean A, Manager at WoodSpring Suites Texas City, responded to this reviewResponded February 2, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 2, 2015</t>
-  </si>
-  <si>
     <t>I was really impressed with the Hotel at Texas City.  The front desk person "Marie" was very helpful in helping find a room for my short stay.  I found it to be a great experience and look forward to another visit soon.More</t>
   </si>
   <si>
@@ -588,6 +855,53 @@
     <t>I made my reservation online over 2 weeks in advance. I drove 9 hours with 3 children and after being stuck in Houston traffic for a lifetime, I finally get to the hotel only to be told that they can not locate my reservation! I even produced my confirmation email and the front desk clerk had no desire to even look at it. I had been looking for a hotel since the begining of the month and knew that everyone in the surrounding area was sold out. I was so upset and tired and just didn't know where to go or what to do. Fortunately, another hotel had a cancellation so I had a place to stay for one night (at 3 times the rate). My husband was able to straighten some things out and get us a room for the remainder of our stay. When I checked in they raised the rate! No one even apologized for all the inconvience of this whole mess. The room was just awful! It was hot and smelled like mildew or something equally as foul even after buying wall plugins and air freshener the smell would hit you everytime you opened the door. The floors are really thin so everytime my 1 yr old would walk across the floor or play with his cars the people below us would call and complain and bang on their ceiling. It made me so uncomfortable that...I made my reservation online over 2 weeks in advance. I drove 9 hours with 3 children and after being stuck in Houston traffic for a lifetime, I finally get to the hotel only to be told that they can not locate my reservation! I even produced my confirmation email and the front desk clerk had no desire to even look at it. I had been looking for a hotel since the begining of the month and knew that everyone in the surrounding area was sold out. I was so upset and tired and just didn't know where to go or what to do. Fortunately, another hotel had a cancellation so I had a place to stay for one night (at 3 times the rate). My husband was able to straighten some things out and get us a room for the remainder of our stay. When I checked in they raised the rate! No one even apologized for all the inconvience of this whole mess. The room was just awful! It was hot and smelled like mildew or something equally as foul even after buying wall plugins and air freshener the smell would hit you everytime you opened the door. The floors are really thin so everytime my 1 yr old would walk across the floor or play with his cars the people below us would call and complain and bang on their ceiling. It made me so uncomfortable that I woud leave as soon as I got up and stay gone until my husband got off work around like 8 or 9. I wanted to stay here because of the stove and fridge. I wanted to cook for my husband since he is always away from home, but was unable too. We didn't have enough towels for everyone (only 2) and EVERYTHING costs extra. If it wasn't for my husband I would not have even considered staying here after they didn't have my reservation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r234970233-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>234970233</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Inexpensive one week stay without maid service.</t>
+  </si>
+  <si>
+    <t>Value place is an inexpensive stay for weekly or monthly work assignments or for short duration training periods. 
+My wife and I visit our two daughters in Texas City and Dickinson. We stay at the Texas City Value Place because a week's stay only costs about three days' stay at the other motels we use. The savings is a trade for maid service we don't need. The room was clean when we arrived. The bed was made. There were towels and toilet paper in the bathroom. 
+This was a studio apartment rented by the week. Monthly rates are available. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.
+We had a full refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided but can be rented.
+There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulletin board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. The floor is carpeted. The far left corner of the room has a closet rack with a shelf and hanger pole. There is space under it for our...Value place is an inexpensive stay for weekly or monthly work assignments or for short duration training periods. My wife and I visit our two daughters in Texas City and Dickinson. We stay at the Texas City Value Place because a week's stay only costs about three days' stay at the other motels we use. The savings is a trade for maid service we don't need. The room was clean when we arrived. The bed was made. There were towels and toilet paper in the bathroom. This was a studio apartment rented by the week. Monthly rates are available. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.We had a full refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided but can be rented.There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulletin board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. The floor is carpeted. The far left corner of the room has a closet rack with a shelf and hanger pole. There is space under it for our three suit cases. There was an adequate bathroom with nice shower pressure, enough hot water, and a variable speed shower head, but no hook on the door.The beds consist of mattresses on metal platforms - with storage under them. There is an extra charge for new sheets or more towels. The mattress was about 8-10 inches thick and very comfortable.We were on the first floor of a four-floor building, but we noted an elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. We could hear the footsteps of a child through our ceiling but never after bedtime. There are vending machines in an alcove behind the elevator. There is a key-access laundry room on the front floor.When we left our room, we could smell cooking food, but we never noticed it when in our room with the door shut.There was easy access to the north-bound feeder road of I-45. To reach the motel from I-45, take exit 16 of I-45. Turn left under I-45 to the second traffice light. Take a left onto the north-bound feeder. The hotel will be on the right after about three blocks of north-bound driving on the feeder road. The front desk is only open during the day, but a 24-hour attendant lives in the building. He was very polite and friendly. He gave us road directions. A room key is needed to enter the front door and the doors at either end of the building.There is a 24-hour IHOP at exit 16 and a 24-hour Denny's at exit 20. After any north-bound trip, one must cross over or under I-45, and take the south-bound feeder back to exit 16. To access highway FM 2004, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn left onto FM2004.To access highway FM 1764, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn right onto FM2004. In less than a mile, turn left onto Emmett F Lowry Expressway. Take the first left exit onto FM 1764.For returning to I-45 North, turn right onto the Feeder Road until the first entrance to I-45 North.For returning to I-45 South, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn right onto FM2004. In about a mile, pass under I-45. Turn left onto the southbound feeder road. Take the first left ramp onto I-45 South.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Value place is an inexpensive stay for weekly or monthly work assignments or for short duration training periods. 
+My wife and I visit our two daughters in Texas City and Dickinson. We stay at the Texas City Value Place because a week's stay only costs about three days' stay at the other motels we use. The savings is a trade for maid service we don't need. The room was clean when we arrived. The bed was made. There were towels and toilet paper in the bathroom. 
+This was a studio apartment rented by the week. Monthly rates are available. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.
+We had a full refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided but can be rented.
+There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulletin board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. The floor is carpeted. The far left corner of the room has a closet rack with a shelf and hanger pole. There is space under it for our...Value place is an inexpensive stay for weekly or monthly work assignments or for short duration training periods. My wife and I visit our two daughters in Texas City and Dickinson. We stay at the Texas City Value Place because a week's stay only costs about three days' stay at the other motels we use. The savings is a trade for maid service we don't need. The room was clean when we arrived. The bed was made. There were towels and toilet paper in the bathroom. This was a studio apartment rented by the week. Monthly rates are available. Stay here if you can do without a maid. The room is only cleaned every two weeks, or when you leave. We emptied our waste baskets at the dumpster behind the hotel. There was no breakfast or swimming pool.We had a full refrigerator, microwave, and a small cabinet with a sink and stove. Dishes were not provided but can be rented.There was a dining room table with three chairs. We had a dresser, TV, nightstand, clock, hanger rack, and shelf. There was a bulletin board over the table. The room was well air-conditioned. There were window blinds, rather than drapes. The room seemed well lighted, and the paint job seemed current. The floor is carpeted. The far left corner of the room has a closet rack with a shelf and hanger pole. There is space under it for our three suit cases. There was an adequate bathroom with nice shower pressure, enough hot water, and a variable speed shower head, but no hook on the door.The beds consist of mattresses on metal platforms - with storage under them. There is an extra charge for new sheets or more towels. The mattress was about 8-10 inches thick and very comfortable.We were on the first floor of a four-floor building, but we noted an elevator. Parking was always available near the entrances. The parking lot is well-lighted. The building exterior and halls were clean. We could hear the footsteps of a child through our ceiling but never after bedtime. There are vending machines in an alcove behind the elevator. There is a key-access laundry room on the front floor.When we left our room, we could smell cooking food, but we never noticed it when in our room with the door shut.There was easy access to the north-bound feeder road of I-45. To reach the motel from I-45, take exit 16 of I-45. Turn left under I-45 to the second traffice light. Take a left onto the north-bound feeder. The hotel will be on the right after about three blocks of north-bound driving on the feeder road. The front desk is only open during the day, but a 24-hour attendant lives in the building. He was very polite and friendly. He gave us road directions. A room key is needed to enter the front door and the doors at either end of the building.There is a 24-hour IHOP at exit 16 and a 24-hour Denny's at exit 20. After any north-bound trip, one must cross over or under I-45, and take the south-bound feeder back to exit 16. To access highway FM 2004, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn left onto FM2004.To access highway FM 1764, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn right onto FM2004. In less than a mile, turn left onto Emmett F Lowry Expressway. Take the first left exit onto FM 1764.For returning to I-45 North, turn right onto the Feeder Road until the first entrance to I-45 North.For returning to I-45 South, leave the parking lot and go left onto 32nd Ave (perpendicular to the feeder road). Follow 32nd Ave to the Coast Guard Base. Turn right onto FM2004. In about a mile, pass under I-45. Turn left onto the southbound feeder road. Take the first left ramp onto I-45 South.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r233213506-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>233213506</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>One of the worst...</t>
+  </si>
+  <si>
+    <t>Value Place is one of the worst places I have stayed. My husband is here for work and is paying 400 a week for a room that has one bed (for his work partner) and a pull out couch that has the worst mattress Ive ever slept on. The springs literally poke into your body. When asked if there was anytging they could do I was told no. On top of this I asked for more towels and was told I would have to wait until 9 a.m. when the office opened to recieve more. There is nothing spectacular about this hotel. Nothing is provided without cost. Extra towels, toilet paper, internet, hair dryers, and even coffee makers...not here or have to be purchased. The bathroom stinks everytime you flush the toilet. Everything seems somewhat clean but nothing smells clean. I have never in my life stayed in a hotel as bad as this one. Go somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>Value Place is one of the worst places I have stayed. My husband is here for work and is paying 400 a week for a room that has one bed (for his work partner) and a pull out couch that has the worst mattress Ive ever slept on. The springs literally poke into your body. When asked if there was anytging they could do I was told no. On top of this I asked for more towels and was told I would have to wait until 9 a.m. when the office opened to recieve more. There is nothing spectacular about this hotel. Nothing is provided without cost. Extra towels, toilet paper, internet, hair dryers, and even coffee makers...not here or have to be purchased. The bathroom stinks everytime you flush the toilet. Everything seems somewhat clean but nothing smells clean. I have never in my life stayed in a hotel as bad as this one. Go somewhere else!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r225080035-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -654,6 +968,60 @@
     <t>I was pleasantly surprised by how clean the rooms were and how friendly the staff was. I would highly recommend this place for anybody looking for an extended stay. I know ill defiantly be coming back here; when I visit the Galveston county area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r210800995-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>210800995</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>TWO THUMBS UP!!!</t>
+  </si>
+  <si>
+    <t>Had a great stay in Texas City with Casey, Kelly and the rest of the staff.  Very helpful and attentive. The rooms and hotel were very clean. No rifraff. Location was great. Walmart is across the freeway &amp; only 15-20 to both Galveston &amp; the Kemah Boardwalk. We will definitely be staying again when we go to visit relatives next summer!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Casey D, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Had a great stay in Texas City with Casey, Kelly and the rest of the staff.  Very helpful and attentive. The rooms and hotel were very clean. No rifraff. Location was great. Walmart is across the freeway &amp; only 15-20 to both Galveston &amp; the Kemah Boardwalk. We will definitely be staying again when we go to visit relatives next summer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r204229315-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>204229315</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>good place to stay</t>
+  </si>
+  <si>
+    <t>we spent one week in this place in January and it was a good place, good rooms, with a kitchen available, and staff was really good staff. how ever the only thing that did not convinience us was that thay did not have a wireless internet available to use the internet on your phone or tablet, but you could us Wlan if you had a laptop, but now everyone caries a laptop when they travel, but for sure everyone has a phone :). Other than this, it was a good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Casey D, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2014</t>
+  </si>
+  <si>
+    <t>we spent one week in this place in January and it was a good place, good rooms, with a kitchen available, and staff was really good staff. how ever the only thing that did not convinience us was that thay did not have a wireless internet available to use the internet on your phone or tablet, but you could us Wlan if you had a laptop, but now everyone caries a laptop when they travel, but for sure everyone has a phone :). Other than this, it was a good place to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r198273034-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -720,6 +1088,60 @@
     <t>As close as it is to the "highway" it is remarkably quiet.  Rooms are comfortable and having the full kitchen is a nice cost/time saver.  May not seem like a big deal to some but vending machines are full stocked with a nice variety of snacks and  necessities!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r181407188-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>181407188</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Clean, Friendly, Home away from home.</t>
+  </si>
+  <si>
+    <t>Rooms are Clean, All staff members are Very polite and attentive to your needs. Nice and Quiet atmosphere perfect for some one on a shutdown. Really all in all this has been one of my best stays at a hotel.(extended stay or not) Thumbs up to Management cause this place is ran correctly.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Casey D, Manager at WoodSpring Suites Texas City, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Rooms are Clean, All staff members are Very polite and attentive to your needs. Nice and Quiet atmosphere perfect for some one on a shutdown. Really all in all this has been one of my best stays at a hotel.(extended stay or not) Thumbs up to Management cause this place is ran correctly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r177272021-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>177272021</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Value Place Texas City</t>
+  </si>
+  <si>
+    <t>I have been doing contract jobs in the last couple years.  I stayed at Value Place in Kalamazoo, MI prior to Value Place Texas City, TX.  Value Place has a common decor and features between sites.  The furniture is not plush (e.g. - no box spring for mattress, and living room chairs are low-cost - Texas City VP has plastic chairs).  I'm guessing this is done to keep prices down.  Besides the budget-line furnishings, there are a couple other Texas City VP negatives: 1) There is a drain problem on the main floor in the common area outside the laundry room, that allows sewer gases to emanate at times; and 2) The internet leaves something to be desired - max download speed is 0.25mbps -&gt; minimum download speed that is considered "good" is more like 10mbps.  This results in a majority of your browsing time be taken up waiting for pages to load and buffering of video - anybody remember dial-up?.  I'm considering getting a wireless hotspot for my internet needs.  It may be a little more costly than the $40/mth fee for Value Place's internet offering; but there would be much less time spent waiting for downloads, etc.Johnny and Casey are great to work with - very responsive to guest's needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Casey D, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>I have been doing contract jobs in the last couple years.  I stayed at Value Place in Kalamazoo, MI prior to Value Place Texas City, TX.  Value Place has a common decor and features between sites.  The furniture is not plush (e.g. - no box spring for mattress, and living room chairs are low-cost - Texas City VP has plastic chairs).  I'm guessing this is done to keep prices down.  Besides the budget-line furnishings, there are a couple other Texas City VP negatives: 1) There is a drain problem on the main floor in the common area outside the laundry room, that allows sewer gases to emanate at times; and 2) The internet leaves something to be desired - max download speed is 0.25mbps -&gt; minimum download speed that is considered "good" is more like 10mbps.  This results in a majority of your browsing time be taken up waiting for pages to load and buffering of video - anybody remember dial-up?.  I'm considering getting a wireless hotspot for my internet needs.  It may be a little more costly than the $40/mth fee for Value Place's internet offering; but there would be much less time spent waiting for downloads, etc.Johnny and Casey are great to work with - very responsive to guest's needs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r175965606-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -738,12 +1160,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Casey D, General Manager at WoodSpring Suites Texas City, responded to this reviewResponded September 18, 2013</t>
-  </si>
-  <si>
-    <t>Responded September 18, 2013</t>
-  </si>
-  <si>
     <t>Everything was very clean ....What I really liked was nothing was broken or not working, if I had any questions about anything I needed they took real goo care  of me in a timely manner. If they had a swimming pool this would be a perfect getaway.....More</t>
   </si>
   <si>
@@ -783,6 +1199,51 @@
     <t>Ideal for anyone on an extended work assignment. The property is clean and quiet. Rooms remind you of a college dorm (quality). Some of the staff lives on site, so there is always someone available to handle any issues or concerns.  Johnnie and Theresa are particularly helpful and friendly, and always willing to assist guests.  Basic cable selection. There is a weekly $10.95 fee for the internet.  Internet needs to be upgraded (very slow and frustrating at times)There is a small laundry room (open 24/7/$1.00 wash/dry). No pool, however there are several restaurants,  a Walmart and Sam's Club less than five minutes away. The hotel is approximately fifteen minutes away from Galveston, and thirty-five to one-hour away from Houston (depending on traffic). Not a bad location. Right off of I-45 service drive, next door to a church.  If you need a place to stay for a week or an extended length of time and you do not want to spend fifty percent of your budget on hotel costs, Value Place will save you money.  The only negative point about Value Place is the poor quality and added fees for the internet.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r168218475-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>168218475</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>very clean and inexpensive place to stay near Galveston</t>
+  </si>
+  <si>
+    <t>the rooms are clean, but not fancy.  The manager, Casey, was extremely helpful when I needed to move rooms and left a much needed charger behind in the original room. The night manager was also very professional.   I would recommend this to any family looking to find a budget friendly place that it clean, well run and very close to Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>the rooms are clean, but not fancy.  The manager, Casey, was extremely helpful when I needed to move rooms and left a much needed charger behind in the original room. The night manager was also very professional.   I would recommend this to any family looking to find a budget friendly place that it clean, well run and very close to Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r163589039-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>163589039</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>EXCELLENT CUSTOMER SERVICE!!</t>
+  </si>
+  <si>
+    <t>The manager, Casey Davis and desk clerk Johnny Watts, have been outstanding. Any company would be lucky to have both of them. They have been nothing but wonderful.  The room is extra clean with all amenities needed for an extended period. The beds are comfortable, along with extra clean bathroom. I just love it here!! No loud , obnoxious guests are allowed to loiter and holler in parking lot!ABSOLUTELY AMAZING SERVICE!!!ALICE ROSSMoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Texas City, responded to this reviewResponded June 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2013</t>
+  </si>
+  <si>
+    <t>The manager, Casey Davis and desk clerk Johnny Watts, have been outstanding. Any company would be lucky to have both of them. They have been nothing but wonderful.  The room is extra clean with all amenities needed for an extended period. The beds are comfortable, along with extra clean bathroom. I just love it here!! No loud , obnoxious guests are allowed to loiter and holler in parking lot!ABSOLUTELY AMAZING SERVICE!!!ALICE ROSSMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r162417073-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -859,6 +1320,48 @@
   </si>
   <si>
     <t>Value Place was home away from home for almost 3 months.  The rooms are sunny, I loved my full-size kitchen and high speed internet kept me connected.  The staff are wonderful - always a friendly face, always a smile.  The property manager is to be commended - Casey is very professional, helpful, and makes all her guests feel right at home and part of a "family".  Cudos to you all, I'll miss ya!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r144241466-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>144241466</t>
+  </si>
+  <si>
+    <t>good service</t>
+  </si>
+  <si>
+    <t>This property was a pleasure to visit.  The room was super clean, sevice was great and it felt so safe.  The staff was wonderful, helpful, and knowledgeable.  The staff greeted me and other customers at all times. The staff was also aware of what attractions were close by. I am going to recommend this place to all my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property was a pleasure to visit.  The room was super clean, sevice was great and it felt so safe.  The staff was wonderful, helpful, and knowledgeable.  The staff greeted me and other customers at all times. The staff was also aware of what attractions were close by. I am going to recommend this place to all my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r142381777-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>142381777</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>totaly shocked</t>
+  </si>
+  <si>
+    <t>My boss had made the reservations and when I saw how little it cost I figured I would be living in the geto. Couldnt be further from the truth! I have stayed at very few places that put this much energy and pride inot the up keep and cleanliness as they do here. Im sure its the staff that takes pride in where they work. everyone who works here is pleasant and always willing to do what it takes to keep you happy..Frist impressions are every thing and my first person I met when i checked in was Kelly (for those of you who dont know, thats kelly with a Y!!!) and the experience just got better from there...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Texas City, responded to this reviewResponded October 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2012</t>
+  </si>
+  <si>
+    <t>My boss had made the reservations and when I saw how little it cost I figured I would be living in the geto. Couldnt be further from the truth! I have stayed at very few places that put this much energy and pride inot the up keep and cleanliness as they do here. Im sure its the staff that takes pride in where they work. everyone who works here is pleasant and always willing to do what it takes to keep you happy..Frist impressions are every thing and my first person I met when i checked in was Kelly (for those of you who dont know, thats kelly with a Y!!!) and the experience just got better from there...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r134548659-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
@@ -934,6 +1437,48 @@
   </si>
   <si>
     <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r88043757-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>88043757</t>
+  </si>
+  <si>
+    <t>11/23/2010</t>
+  </si>
+  <si>
+    <t>Wonderful, Handy and Cheap Place to Stay</t>
+  </si>
+  <si>
+    <t>I stayed a week here for a reunion, since the week cost way less than just a couple of days at the other local hotels.  Clean, easy freeway access, and who can beat a kitchenette where you can save money by cooking your own food?MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I stayed a week here for a reunion, since the week cost way less than just a couple of days at the other local hotels.  Clean, easy freeway access, and who can beat a kitchenette where you can save money by cooking your own food?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1469344-r45897166-WoodSpring_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>45897166</t>
+  </si>
+  <si>
+    <t>10/05/2009</t>
+  </si>
+  <si>
+    <t>Better than the rest!</t>
+  </si>
+  <si>
+    <t>I was amazed at their cleaning process!  I mean, most places don't take everything out of the room and clean it, but Value Place does!  No wondering if your bedspread and blanket was used and put back on the bed before you checked in!  The staff here was great!  Very friendly and helpful.  There were some really rude guests at the counter while I stayed there but they handled things so professionally!  Very impressed!  You can tell the manager takes pride and so does the rest of the staff.  I will always choose to stay there when i am in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I was amazed at their cleaning process!  I mean, most places don't take everything out of the room and clean it, but Value Place does!  No wondering if your bedspread and blanket was used and put back on the bed before you checked in!  The staff here was great!  Very friendly and helpful.  There were some really rude guests at the counter while I stayed there but they handled things so professionally!  Very impressed!  You can tell the manager takes pride and so does the rest of the staff.  I will always choose to stay there when i am in the area!More</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1479,9 +2024,13 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1532,28 +2081,34 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1569,7 +2124,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1578,25 +2133,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1608,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1630,7 +2185,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1639,25 +2194,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1669,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1691,7 +2246,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1700,47 +2255,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>90</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
         <v>92</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>93</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -1756,7 +2307,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1765,28 +2316,36 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>97</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1834,13 +2393,13 @@
         <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1895,13 +2454,13 @@
         <v>116</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
         <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1956,25 +2515,23 @@
         <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
         <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2023,14 +2580,10 @@
         <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>135</v>
-      </c>
-      <c r="O11" t="s">
-        <v>136</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -2041,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
         <v>137</v>
-      </c>
-      <c r="X11" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -2063,7 +2616,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2072,46 +2625,46 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
         <v>141</v>
       </c>
-      <c r="J12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>142</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>143</v>
       </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>135</v>
-      </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
         <v>144</v>
@@ -2154,14 +2707,14 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
@@ -2173,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -2195,7 +2748,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2204,45 +2757,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
@@ -2258,7 +2809,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2267,43 +2818,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
@@ -2319,7 +2870,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2328,35 +2879,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
@@ -2372,7 +2937,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2381,47 +2946,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -2437,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2446,49 +3011,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s"/>
       <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
@@ -2504,7 +3059,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2513,47 +3068,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="X19" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
@@ -2569,7 +3120,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2578,49 +3129,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
@@ -2636,7 +3187,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2645,43 +3196,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
         <v>202</v>
       </c>
-      <c r="L21" t="s">
-        <v>203</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>204</v>
-      </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -2697,7 +3252,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2706,34 +3261,34 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -2741,14 +3296,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>196</v>
-      </c>
-      <c r="X22" t="s">
-        <v>197</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
@@ -2764,7 +3315,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2773,16 +3324,16 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -2796,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -2808,14 +3359,10 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>217</v>
-      </c>
-      <c r="X23" t="s">
-        <v>218</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -2831,7 +3378,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2840,49 +3387,45 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>225</v>
-      </c>
-      <c r="X24" t="s">
-        <v>226</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -2898,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2907,49 +3450,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>225</v>
-      </c>
-      <c r="X25" t="s">
-        <v>226</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -2965,7 +3502,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2974,53 +3511,35 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
-      <c r="N26" t="s">
-        <v>239</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>240</v>
-      </c>
-      <c r="X26" t="s">
-        <v>241</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
@@ -3036,7 +3555,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3045,53 +3564,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>240</v>
-      </c>
-      <c r="X27" t="s">
-        <v>241</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
@@ -3107,7 +3616,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3116,37 +3625,33 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>204</v>
-      </c>
-      <c r="O28" t="s">
-        <v>73</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3156,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="X28" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
@@ -3178,7 +3683,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3187,35 +3692,29 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>5</v>
       </c>
@@ -3227,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="X29" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Y29" t="s">
         <v>263</v>
@@ -3270,14 +3769,10 @@
         <v>268</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>260</v>
-      </c>
-      <c r="O30" t="s">
-        <v>73</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
         <v>5</v>
       </c>
@@ -3298,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
+        <v>255</v>
+      </c>
+      <c r="X30" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y30" t="s">
         <v>269</v>
-      </c>
-      <c r="X30" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -3320,7 +3815,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3329,53 +3824,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
         <v>273</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>274</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>275</v>
       </c>
-      <c r="L31" t="s">
-        <v>276</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>277</v>
-      </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
@@ -3391,7 +3880,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3400,53 +3889,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
         <v>282</v>
       </c>
-      <c r="J32" t="s">
-        <v>283</v>
-      </c>
-      <c r="K32" t="s">
-        <v>284</v>
-      </c>
-      <c r="L32" t="s">
-        <v>285</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>286</v>
-      </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
       </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -3462,7 +3947,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3471,53 +3956,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>286</v>
-      </c>
-      <c r="O33" t="s">
-        <v>63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="Y33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -3533,7 +4014,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3542,41 +4023,1705 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>296</v>
+      </c>
+      <c r="X34" t="s">
+        <v>297</v>
+      </c>
       <c r="Y34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
         <v>300</v>
+      </c>
+      <c r="J35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>304</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>296</v>
+      </c>
+      <c r="X35" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>296</v>
+      </c>
+      <c r="X36" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>317</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>318</v>
+      </c>
+      <c r="X37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s">
+        <v>203</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>327</v>
+      </c>
+      <c r="X38" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>331</v>
+      </c>
+      <c r="J39" t="s">
+        <v>332</v>
+      </c>
+      <c r="K39" t="s">
+        <v>333</v>
+      </c>
+      <c r="L39" t="s">
+        <v>334</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>335</v>
+      </c>
+      <c r="X39" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" t="s">
+        <v>342</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>343</v>
+      </c>
+      <c r="X40" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>343</v>
+      </c>
+      <c r="X41" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>353</v>
+      </c>
+      <c r="J42" t="s">
+        <v>354</v>
+      </c>
+      <c r="K42" t="s">
+        <v>355</v>
+      </c>
+      <c r="L42" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>357</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>358</v>
+      </c>
+      <c r="X42" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>366</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>367</v>
+      </c>
+      <c r="X43" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>367</v>
+      </c>
+      <c r="X44" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>304</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X45" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" t="s">
+        <v>385</v>
+      </c>
+      <c r="K46" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" t="s">
+        <v>387</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>304</v>
+      </c>
+      <c r="O46" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>367</v>
+      </c>
+      <c r="X46" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" t="s">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>394</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>367</v>
+      </c>
+      <c r="X47" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>396</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>397</v>
+      </c>
+      <c r="J48" t="s">
+        <v>398</v>
+      </c>
+      <c r="K48" t="s">
+        <v>399</v>
+      </c>
+      <c r="L48" t="s">
+        <v>400</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>375</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>401</v>
+      </c>
+      <c r="X48" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>404</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>405</v>
+      </c>
+      <c r="J49" t="s">
+        <v>406</v>
+      </c>
+      <c r="K49" t="s">
+        <v>407</v>
+      </c>
+      <c r="L49" t="s">
+        <v>408</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>409</v>
+      </c>
+      <c r="O49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>410</v>
+      </c>
+      <c r="X49" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>414</v>
+      </c>
+      <c r="J50" t="s">
+        <v>415</v>
+      </c>
+      <c r="K50" t="s">
+        <v>416</v>
+      </c>
+      <c r="L50" t="s">
+        <v>417</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>409</v>
+      </c>
+      <c r="O50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>418</v>
+      </c>
+      <c r="X50" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>422</v>
+      </c>
+      <c r="J51" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" t="s">
+        <v>424</v>
+      </c>
+      <c r="L51" t="s">
+        <v>425</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>427</v>
+      </c>
+      <c r="X51" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" t="s">
+        <v>432</v>
+      </c>
+      <c r="L52" t="s">
+        <v>433</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>426</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>427</v>
+      </c>
+      <c r="X52" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>436</v>
+      </c>
+      <c r="J53" t="s">
+        <v>437</v>
+      </c>
+      <c r="K53" t="s">
+        <v>438</v>
+      </c>
+      <c r="L53" t="s">
+        <v>439</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>440</v>
+      </c>
+      <c r="O53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>441</v>
+      </c>
+      <c r="X53" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>444</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>445</v>
+      </c>
+      <c r="J54" t="s">
+        <v>446</v>
+      </c>
+      <c r="K54" t="s">
+        <v>447</v>
+      </c>
+      <c r="L54" t="s">
+        <v>448</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>449</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>450</v>
+      </c>
+      <c r="X54" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>453</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>454</v>
+      </c>
+      <c r="J55" t="s">
+        <v>455</v>
+      </c>
+      <c r="K55" t="s">
+        <v>456</v>
+      </c>
+      <c r="L55" t="s">
+        <v>457</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>449</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>450</v>
+      </c>
+      <c r="X55" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>459</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>460</v>
+      </c>
+      <c r="J56" t="s">
+        <v>461</v>
+      </c>
+      <c r="K56" t="s">
+        <v>462</v>
+      </c>
+      <c r="L56" t="s">
+        <v>463</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>464</v>
+      </c>
+      <c r="O56" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" t="s">
+        <v>468</v>
+      </c>
+      <c r="L57" t="s">
+        <v>469</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>470</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>450</v>
+      </c>
+      <c r="X57" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60498</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>474</v>
+      </c>
+      <c r="K58" t="s">
+        <v>475</v>
+      </c>
+      <c r="L58" t="s">
+        <v>476</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>477</v>
+      </c>
+      <c r="O58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>450</v>
+      </c>
+      <c r="X58" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
